--- a/biology/Médecine/Paul_Pamard/Paul_Pamard.xlsx
+++ b/biology/Médecine/Paul_Pamard/Paul_Pamard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paul Antoine Marie Pamard, né le 24 août 1802 à Avignon (Vaucluse) et mort le 13 février 1872 (à 69 ans) dans la même ville, est un homme politique français.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'une famille de médecins, et fils du chirurgien Jean-Baptiste Pamard, il suit ses études médicales à Paris, où il obtient son doctorat en 1825. De retour à Avignon, il devient chirurgien à l'Hôtel Dieu. Au cours de sa carrière, il a réalisé quelques progrès dans la lithotripsie, l'opération de la cataracte, et la ligature des grosses artères[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'une famille de médecins, et fils du chirurgien Jean-Baptiste Pamard, il suit ses études médicales à Paris, où il obtient son doctorat en 1825. De retour à Avignon, il devient chirurgien à l'Hôtel Dieu. Au cours de sa carrière, il a réalisé quelques progrès dans la lithotripsie, l'opération de la cataracte, et la ligature des grosses artères.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa carrière politique débute par son élection à la mairie d'Avignon, puis comme conseiller général du canton d'Avignon-Sud. Sa première élection comme député date de 1861, à la mort de César Joannis de Verclos. Il sera réélu par deux fois, en 1863 et en 1869. Maire d'Avignon, il a fait construire l'hôtel de ville et tracer la rue de la République.
 </t>
@@ -574,17 +590,19 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Pamard (1669-1728), chirurgien originaire des Flandres, il s'est établi à Avignon.
 Nicolas-Dominique Pamard (1702-1783)
 Pierre François Bénézet Pamard (1728-1793), maître en chirurgie, chirurgien en chef des hôpitaux d'Avignon, chirurgien occultiste. Il invente une pique pour tenir l'œil pendant l'opération de la cataracte. Associé à l'Académie royale de médecine en 1784.
-Jean-Baptiste Antoine Bénézet Pamard (1763-1827), docteur en médecine, maître en chirurgie en 1782. Il est membre de l'Athénée de Vaucluse. Chevalier de la Légion d'honneur[2]
+Jean-Baptiste Antoine Bénézet Pamard (1763-1827), docteur en médecine, maître en chirurgie en 1782. Il est membre de l'Athénée de Vaucluse. Chevalier de la Légion d'honneur
 Virginie Marie Julie Magdelaine Pamard (1800-1851)
 Paul Antoine Marie Pamard (1802-1872), docteur en chirurgie en 1825, chirurgien à l'Hôtel-Dieu, professeur de clinique chirurgicale, député du Vaucluse.
 Alfred Paul Hippolyte Pamard (1837-1920), docteur en médecine et en chirurgie. Officier de la Légion d'honneur.
-Paul François Bénézet Pamard (1874-1961), médecin militaire, officier de la Légion d'honneur[3]
-Ernest Antoine Augustin Pamard (1842-1916), général de division, grand officier de la Légion d'honneur[4]</t>
+Paul François Bénézet Pamard (1874-1961), médecin militaire, officier de la Légion d'honneur
+Ernest Antoine Augustin Pamard (1842-1916), général de division, grand officier de la Légion d'honneur</t>
         </is>
       </c>
     </row>
@@ -612,7 +630,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De la cataracte, et de son extraction par un procédé particulier, thèse présentée et soutenue à la Faculté de Médecine de Paris le 19 mai 1825, pour obtenir le grade de docteur en chirurgie, imprimerie Didot le jeune, Paris, 1825 (lire en ligne)
 Du danger des systèmes en médecine, thèse présentée et soutenue à la Faculté de Médecine de Paris le 4 août 1825 pour obtenir le grade de docteur en médecine, imprimerie Didot le jeune, Paris, 1825 (lire en ligne)
@@ -648,9 +668,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Officier de la Légion d'honneur (1855)[5]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur (1855)</t>
         </is>
       </c>
     </row>
